--- a/Files/Libro1.xlsx
+++ b/Files/Libro1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\PycharmProjects\Automation_of_contracts\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAADB409-252F-4AD1-9AF2-9A7BEAC859E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC996E86-1876-4271-AD13-A82F133E5093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19725" windowHeight="12780" xr2:uid="{20F775E0-0505-45E8-BE47-ADB5C3A19898}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19725" windowHeight="12780" activeTab="2" xr2:uid="{20F775E0-0505-45E8-BE47-ADB5C3A19898}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_Base" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
-    <sheet name="Datos_Contrato_P1" sheetId="2" r:id="rId3"/>
-    <sheet name="Datos_Contrato_P2" sheetId="3" r:id="rId4"/>
+    <sheet name="Datos_Contrato_P1" sheetId="2" r:id="rId2"/>
+    <sheet name="Datos_Contrato_P2" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
   <si>
     <t xml:space="preserve">nombre_adquisicion </t>
   </si>
@@ -90,9 +90,6 @@
     <t>Base</t>
   </si>
   <si>
-    <t>}</t>
-  </si>
-  <si>
     <t>numero_contrato</t>
   </si>
   <si>
@@ -120,18 +117,9 @@
     <t xml:space="preserve"> la Enfermera Supervisora de Pabellón y el encargado en aspectos administrativos será el Jefe de Farmacia o quien lo subrogue.</t>
   </si>
   <si>
-    <t xml:space="preserve">    coordinador </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El adjudicatario nombra coordinador del contrato a,</t>
-  </si>
-  <si>
     <t xml:space="preserve">    nombre_coordinador</t>
   </si>
   <si>
-    <t xml:space="preserve"> doña MARIA GABRIELA CARDENAS en el desempeño de su cometido, el coordinador del contrato deberá, a lo menos</t>
-  </si>
-  <si>
     <t xml:space="preserve">    monto_contrato_garantia </t>
   </si>
   <si>
@@ -177,15 +165,9 @@
     <t xml:space="preserve"> Adjudicacion por la totalidad</t>
   </si>
   <si>
-    <t xml:space="preserve"> , 6, 7, 8 y 9</t>
-  </si>
-  <si>
     <t xml:space="preserve"> SUMINISTRO DE INSUMOS Y ACCESORIOS PARA TERAPIA DE PRESIÓN NEGATIVA CON EQUIPOS EN COMODATO PARA EL HOSPITAL SAN JOSÉ DE MELIPILLA</t>
   </si>
   <si>
-    <t xml:space="preserve"> El adjudicatario nombra coordinador del contrato a</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1057480-81-LE24</t>
   </si>
   <si>
@@ -331,6 +313,84 @@
   </si>
   <si>
     <t>anexos_listados</t>
+  </si>
+  <si>
+    <t>garantia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrega_muestras </t>
+  </si>
+  <si>
+    <t>con_costo_de_transporte</t>
+  </si>
+  <si>
+    <t>La propuesta deberá contemplar todos los costos de trasporte para el despacho de los productos. El Hospital no cancelará ningún costo asociado a esta temática.</t>
+  </si>
+  <si>
+    <t>muestra</t>
+  </si>
+  <si>
+    <t>Entregar muestras de los productos solicitados y comodato ofertado.</t>
+  </si>
+  <si>
+    <t>Criterios Técnicos</t>
+  </si>
+  <si>
+    <t>Se evaluará según información presentada en el Anexo N°8 de la presente base de licitación.</t>
+  </si>
+  <si>
+    <t>Se evaluará según información presentada en el Anexo N°9 de la presente base de licitación.</t>
+  </si>
+  <si>
+    <t>evaluacion_tecnica</t>
+  </si>
+  <si>
+    <t>evaluacion_plazo</t>
+  </si>
+  <si>
+    <t>evaluacion_post</t>
+  </si>
+  <si>
+    <t>Se evaluará según información presentada para el Anexo N°7 que deberá ser adjuntada en su oferta en el Portal de Mercado Público, junto con la pauta de evaluación del Anexo N°6. Se evaluará por producto ofertado, donde el puntaje total será el promedio de la evaluación de todos los insumos ofertados.</t>
+  </si>
+  <si>
+    <t>pct_eval_tecnica</t>
+  </si>
+  <si>
+    <t>pct_eval_plazo</t>
+  </si>
+  <si>
+    <t>pct_eval_post</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>6, 7, 8 y 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> doña MARIA GABRIELA CARDENAS</t>
+  </si>
+  <si>
+    <t>detalles_extra</t>
+  </si>
+  <si>
+    <t>Esto para que me conserve detalles extra al generar el documento</t>
+  </si>
+  <si>
+    <t>pero despues voy a pedir que me los elimine cuando toque generar el contrato</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>detalles_escrituras_proveedor</t>
+  </si>
+  <si>
+    <t>consta en escritura pública de fecha 01 de agosto de 2023, otorgada en la 11va Notaria de Santiago, inscrita a fojas 72353 número 31186 del Registro de Comercio de Santiago.</t>
+  </si>
+  <si>
+    <t>numero_base</t>
   </si>
 </sst>
 </file>
@@ -341,7 +401,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;\-#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +440,29 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -395,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -418,15 +501,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -437,7 +586,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -448,10 +596,89 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -763,415 +990,547 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88C456F-232C-4136-A46D-20CE5838A54A}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="140.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="77.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="43">
+        <v>140</v>
+      </c>
+      <c r="C2" s="42">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="101.25" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="15">
         <v>36</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="15">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:4" ht="16.5">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B6" s="16">
         <v>350000000</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="16">
         <v>350000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:4" ht="16.5">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="15">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:4" ht="16.5">
+      <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5">
+      <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5">
+      <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5">
+      <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5">
+      <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="66">
+      <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="82.5">
+      <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="33">
+      <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5">
+      <c r="A18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="82.5">
+      <c r="A19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5">
+      <c r="A20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5">
+      <c r="A21" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.5">
+      <c r="A22" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="99">
+      <c r="A23" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.5">
+      <c r="A25" s="26"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+    </row>
+    <row r="27" spans="1:4" ht="165">
+      <c r="A27" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5">
+      <c r="A28" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="C28" s="20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="49.5">
+      <c r="A29" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5">
+      <c r="A30" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="C30" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="49.5">
+      <c r="A31" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="1:4" ht="16.5">
+      <c r="A32" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5">
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="39"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.5">
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+    </row>
+    <row r="35" spans="1:4" ht="16.5">
+      <c r="A35" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5">
+      <c r="A36" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5">
+      <c r="A37" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5">
+      <c r="A38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="66">
+      <c r="A39" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5">
+      <c r="A40" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="15" t="str">
+        <f>+_xlfn.CONCAT(IF(LEN(B35)&gt;1,"N°6",0),", ",IF(LEN(B36)&gt;1,"N°7",0),", ",IF(LEN(B37)&gt;1,"N°8",0),", ",IF(LEN(B38)&gt;1,"N°9",0))</f>
+        <v>N°6, N°7, N°8, N°9</v>
+      </c>
+      <c r="C40" s="15" t="str">
+        <f>+_xlfn.CONCAT(IF(LEN(C35)&gt;1,"N°6",0),", ",IF(LEN(C36)&gt;1,"N°7",0),", ",IF(LEN(C37)&gt;1,"N°8",0),", ",IF(LEN(C38)&gt;1,"N°9",0))</f>
+        <v>N°6, N°7, N°8, N°9</v>
+      </c>
+      <c r="D40" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" t="str">
-        <f>+_xlfn.CONCAT(IF(LEN(B20)&gt;1,"N°6",0),", ",IF(LEN(B21)&gt;1,"N°7",0),", ",IF(LEN(B22)&gt;1,"N°8",0),", ",IF(LEN(B23)&gt;1,"N°9",0))</f>
-        <v>N°6, N°7, N°8, N°9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="11"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="11"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="11"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="11"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="11"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>75</v>
-      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.5">
+      <c r="A42" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5">
+      <c r="A43" s="29"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5">
+      <c r="A44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="34"/>
+    </row>
+    <row r="45" spans="1:4" ht="16.5">
+      <c r="A45" s="29"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1180,158 +1539,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2312-0FE1-4F87-8CDA-B53EE4CF4033}">
-  <dimension ref="A5:B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="5" spans="1:2" ht="15.75">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233D9D78-1877-42B3-8BAB-BAA86A17F47B}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="118.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1346,59 +1565,46 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" s="5">
+        <v>3250000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3250000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="6">
-        <v>3250000</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3250000</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1406,12 +1612,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D60390-9D17-4557-9701-A3F185354FEA}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1433,8 +1639,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>21</v>
+      <c r="A2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1444,80 +1650,229 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2312-0FE1-4F87-8CDA-B53EE4CF4033}">
+  <dimension ref="A5:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
